--- a/data/pca/factorExposure/factorExposure_2018-06-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-06-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01928601834135454</v>
+        <v>0.02167272619846991</v>
       </c>
       <c r="C2">
-        <v>-0.01495521283002515</v>
+        <v>-0.01861135530823103</v>
       </c>
       <c r="D2">
-        <v>0.008129605743474322</v>
+        <v>-0.02142964745154588</v>
       </c>
       <c r="E2">
-        <v>0.02251591246869307</v>
+        <v>-0.01413235968205309</v>
       </c>
       <c r="F2">
-        <v>-0.1109142656480503</v>
+        <v>-0.009659468440837503</v>
       </c>
       <c r="G2">
-        <v>-0.06052529871749417</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.04997516269454885</v>
+      </c>
+      <c r="H2">
+        <v>0.05107089312840517</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.09526323579801907</v>
+        <v>0.08510454440776136</v>
       </c>
       <c r="C3">
-        <v>0.02590170455903755</v>
+        <v>0.01306543695383412</v>
       </c>
       <c r="D3">
-        <v>0.07274233536526829</v>
+        <v>-0.03571116843888016</v>
       </c>
       <c r="E3">
-        <v>0.0728955183514305</v>
+        <v>-0.004051080444082711</v>
       </c>
       <c r="F3">
-        <v>-0.3844290868414793</v>
+        <v>0.003568871252288373</v>
       </c>
       <c r="G3">
-        <v>-0.1538903688500396</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.1827135361200309</v>
+      </c>
+      <c r="H3">
+        <v>0.1728819458418754</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.03911164893851681</v>
+        <v>0.04669251548786572</v>
       </c>
       <c r="C4">
-        <v>-0.007505711210328362</v>
+        <v>-0.005008170439110061</v>
       </c>
       <c r="D4">
-        <v>-0.01870622154919352</v>
+        <v>-0.04845313125623008</v>
       </c>
       <c r="E4">
-        <v>-0.04342313884275477</v>
+        <v>0.02071670429796307</v>
       </c>
       <c r="F4">
-        <v>-0.08118768739485191</v>
+        <v>-0.05586775141626495</v>
       </c>
       <c r="G4">
-        <v>-0.0506414805284205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.03162820183144441</v>
+      </c>
+      <c r="H4">
+        <v>0.05661824734513859</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.02108579876710815</v>
+        <v>0.02783610453621088</v>
       </c>
       <c r="C6">
-        <v>-0.01127399778094668</v>
+        <v>-0.003268270664598794</v>
       </c>
       <c r="D6">
-        <v>0.007399812304379708</v>
+        <v>-0.05383830544721369</v>
       </c>
       <c r="E6">
-        <v>-0.01687095168419251</v>
+        <v>0.005223878923735484</v>
       </c>
       <c r="F6">
-        <v>-0.02803134722033636</v>
+        <v>-0.0328863351153094</v>
       </c>
       <c r="G6">
-        <v>0.001100739217036792</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.0089216614122155</v>
+      </c>
+      <c r="H6">
+        <v>0.06479765575562048</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02102878324619274</v>
+        <v>0.02273987395852763</v>
       </c>
       <c r="C7">
-        <v>-0.003200399419234131</v>
+        <v>-0.002711481127408389</v>
       </c>
       <c r="D7">
-        <v>0.01263513006648159</v>
+        <v>-0.02757963498983852</v>
       </c>
       <c r="E7">
-        <v>-0.02510657168233201</v>
+        <v>0.04300439564886156</v>
       </c>
       <c r="F7">
-        <v>-0.04946074286941254</v>
+        <v>-0.009152620930707952</v>
       </c>
       <c r="G7">
-        <v>-0.06391369759031743</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.02155597511416304</v>
+      </c>
+      <c r="H7">
+        <v>0.0393201092404603</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01806910074613344</v>
+        <v>0.007689659981274057</v>
       </c>
       <c r="C8">
-        <v>-0.0110601198890176</v>
+        <v>0.002136636188055949</v>
       </c>
       <c r="D8">
-        <v>0.00335319979279704</v>
+        <v>-0.01184864723729965</v>
       </c>
       <c r="E8">
-        <v>-0.03179902120533602</v>
+        <v>0.00739514322128703</v>
       </c>
       <c r="F8">
-        <v>-0.1039390864457044</v>
+        <v>-0.02377628281150891</v>
       </c>
       <c r="G8">
-        <v>-0.05557199514388612</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.0413261582992079</v>
+      </c>
+      <c r="H8">
+        <v>0.04541490334014047</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03192860213633092</v>
+        <v>0.0371898539042264</v>
       </c>
       <c r="C9">
-        <v>-0.01193809290384515</v>
+        <v>-0.001015009832132017</v>
       </c>
       <c r="D9">
-        <v>-0.007372533014603774</v>
+        <v>-0.03630266842733897</v>
       </c>
       <c r="E9">
-        <v>-0.03137340575278121</v>
+        <v>0.009998785032250906</v>
       </c>
       <c r="F9">
-        <v>-0.09196467667422416</v>
+        <v>-0.0309889964892043</v>
       </c>
       <c r="G9">
-        <v>-0.0606147706102239</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.0414378153507924</v>
+      </c>
+      <c r="H9">
+        <v>0.05564314478811806</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03380085328196865</v>
+        <v>0.1018411768641907</v>
       </c>
       <c r="C10">
-        <v>0.07893093533782414</v>
+        <v>0.02182886971988082</v>
       </c>
       <c r="D10">
-        <v>-0.07670842764864219</v>
+        <v>0.15817746994862</v>
       </c>
       <c r="E10">
-        <v>0.1131714921969131</v>
+        <v>-0.001848486781111232</v>
       </c>
       <c r="F10">
-        <v>-0.04116045517752797</v>
+        <v>0.03812480195990156</v>
       </c>
       <c r="G10">
-        <v>0.01304857702414642</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.03325121860652701</v>
+      </c>
+      <c r="H10">
+        <v>0.01303229533462802</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03270465371484255</v>
+        <v>0.02302020228480304</v>
       </c>
       <c r="C11">
-        <v>-0.02264590106951283</v>
+        <v>0.008935835845657792</v>
       </c>
       <c r="D11">
-        <v>0.01474482499334763</v>
+        <v>-0.0416916964353559</v>
       </c>
       <c r="E11">
-        <v>-0.02491693705100321</v>
+        <v>-0.001047370079748527</v>
       </c>
       <c r="F11">
-        <v>-0.04744360917399829</v>
+        <v>-0.01391197361363884</v>
       </c>
       <c r="G11">
-        <v>-0.02284703492909875</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.02400349281109016</v>
+      </c>
+      <c r="H11">
+        <v>0.04766369100420986</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04102944505119446</v>
+        <v>0.02783015954223286</v>
       </c>
       <c r="C12">
-        <v>-0.02518750682866194</v>
+        <v>0.005829150216762787</v>
       </c>
       <c r="D12">
-        <v>0.008273520684295824</v>
+        <v>-0.0406197204215567</v>
       </c>
       <c r="E12">
-        <v>-0.03535275658672322</v>
+        <v>0.008220309922291349</v>
       </c>
       <c r="F12">
-        <v>-0.03302593109287699</v>
+        <v>-0.01755169538638534</v>
       </c>
       <c r="G12">
-        <v>-0.006849102663543353</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.00589295691507863</v>
+      </c>
+      <c r="H12">
+        <v>0.01985465263548685</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01436072057405006</v>
+        <v>0.02867797718259747</v>
       </c>
       <c r="C13">
-        <v>-0.01797105378051852</v>
+        <v>-0.01377492480237001</v>
       </c>
       <c r="D13">
-        <v>-0.005072750067800151</v>
+        <v>-0.004816493935966441</v>
       </c>
       <c r="E13">
-        <v>0.009808715798764661</v>
+        <v>-0.01050719545416825</v>
       </c>
       <c r="F13">
-        <v>-0.07836742929379019</v>
+        <v>-0.02211091585075705</v>
       </c>
       <c r="G13">
-        <v>-0.04007186773469137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.05512001094602205</v>
+      </c>
+      <c r="H13">
+        <v>0.07073026229400541</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01585633330155076</v>
+        <v>0.01836110511479859</v>
       </c>
       <c r="C14">
-        <v>-0.001494232276282011</v>
+        <v>-0.0008236793358878359</v>
       </c>
       <c r="D14">
-        <v>-0.007737938579945952</v>
+        <v>-0.005363163841483118</v>
       </c>
       <c r="E14">
-        <v>-0.03248794339649812</v>
+        <v>0.01405206730761915</v>
       </c>
       <c r="F14">
-        <v>-0.05971188771750791</v>
+        <v>-0.01850020781895878</v>
       </c>
       <c r="G14">
-        <v>-0.06526677695310351</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.03949640364618171</v>
+      </c>
+      <c r="H14">
+        <v>0.01108405235244401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02584843588300077</v>
+        <v>0.02394060817910468</v>
       </c>
       <c r="C16">
-        <v>-0.02549289038061163</v>
+        <v>0.009154495584253991</v>
       </c>
       <c r="D16">
-        <v>0.01154854829211759</v>
+        <v>-0.03632265430576751</v>
       </c>
       <c r="E16">
-        <v>-0.01977723676454599</v>
+        <v>0.002474632663843021</v>
       </c>
       <c r="F16">
-        <v>-0.05395451030461821</v>
+        <v>-0.01935357651830715</v>
       </c>
       <c r="G16">
-        <v>-0.02489238152283375</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.02063761446710941</v>
+      </c>
+      <c r="H16">
+        <v>0.03773537687205419</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.0458239300187235</v>
+        <v>0.03617795865043737</v>
       </c>
       <c r="C19">
-        <v>-0.01671130303640451</v>
+        <v>-0.0002685453694342044</v>
       </c>
       <c r="D19">
-        <v>0.01087630776170752</v>
+        <v>-0.02498245534893029</v>
       </c>
       <c r="E19">
-        <v>-0.02714435468663058</v>
+        <v>0.005208709571418553</v>
       </c>
       <c r="F19">
-        <v>-0.1125224552027556</v>
+        <v>-0.02889324143323543</v>
       </c>
       <c r="G19">
-        <v>-0.02890788229298378</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.05830480788526236</v>
+      </c>
+      <c r="H19">
+        <v>0.07425593911880408</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.0005856098417965184</v>
+        <v>0.01266107399017576</v>
       </c>
       <c r="C20">
-        <v>-0.003597053674084692</v>
+        <v>-0.005675876978038093</v>
       </c>
       <c r="D20">
-        <v>-0.006663652028884553</v>
+        <v>-0.01230993547122375</v>
       </c>
       <c r="E20">
-        <v>-0.02540461536723036</v>
+        <v>0.00481748580469428</v>
       </c>
       <c r="F20">
-        <v>-0.07462973469761316</v>
+        <v>-0.02104912698797947</v>
       </c>
       <c r="G20">
-        <v>-0.07074568422203135</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.04909629986260425</v>
+      </c>
+      <c r="H20">
+        <v>0.0248753815573728</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.005647427734960026</v>
+        <v>0.01645347891860762</v>
       </c>
       <c r="C21">
-        <v>0.01428541797522673</v>
+        <v>-0.008003880696308745</v>
       </c>
       <c r="D21">
-        <v>0.01965512853763375</v>
+        <v>-0.01199749611986136</v>
       </c>
       <c r="E21">
-        <v>-0.02422447126151984</v>
+        <v>0.01931140694201149</v>
       </c>
       <c r="F21">
-        <v>-0.05444581786117882</v>
+        <v>-0.01200701629472533</v>
       </c>
       <c r="G21">
-        <v>-0.02511724452231754</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.04769377789528721</v>
+      </c>
+      <c r="H21">
+        <v>0.04816218390860086</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02873756460371801</v>
+        <v>0.02055131684025903</v>
       </c>
       <c r="C24">
-        <v>-0.02320546037729581</v>
+        <v>0.003326944208935733</v>
       </c>
       <c r="D24">
-        <v>-0.0005762883885614253</v>
+        <v>-0.0363954795158869</v>
       </c>
       <c r="E24">
-        <v>-0.007828128118030646</v>
+        <v>0.0005762036009089316</v>
       </c>
       <c r="F24">
-        <v>-0.04601852120473613</v>
+        <v>-0.01366866631385657</v>
       </c>
       <c r="G24">
-        <v>-0.02312456455066103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.01537989837890747</v>
+      </c>
+      <c r="H24">
+        <v>0.04565409019623101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03016812041261063</v>
+        <v>0.03162697080940121</v>
       </c>
       <c r="C25">
-        <v>-0.01494066873992776</v>
+        <v>0.00142272471833078</v>
       </c>
       <c r="D25">
-        <v>0.01517778898461091</v>
+        <v>-0.03666869031376935</v>
       </c>
       <c r="E25">
-        <v>-0.02633805467038141</v>
+        <v>0.004668409861524322</v>
       </c>
       <c r="F25">
-        <v>-0.05328020294545965</v>
+        <v>-0.02103422514767072</v>
       </c>
       <c r="G25">
-        <v>-0.008857046805931672</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.01983776723378623</v>
+      </c>
+      <c r="H25">
+        <v>0.04571951831485169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02113604628606808</v>
+        <v>0.01915281142987249</v>
       </c>
       <c r="C26">
-        <v>-0.008689321556396477</v>
+        <v>-0.01805623421485592</v>
       </c>
       <c r="D26">
-        <v>0.02514627901642077</v>
+        <v>-0.001574641498304863</v>
       </c>
       <c r="E26">
-        <v>0.0008114565904288331</v>
+        <v>-0.001226648621256818</v>
       </c>
       <c r="F26">
-        <v>-0.06921184007299168</v>
+        <v>-0.002520907127638362</v>
       </c>
       <c r="G26">
-        <v>-0.04790713985689189</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.03147378590002642</v>
+      </c>
+      <c r="H26">
+        <v>0.02119470670838484</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.06095466592191753</v>
+        <v>0.02376053123661555</v>
       </c>
       <c r="C27">
-        <v>-0.02148371342098455</v>
+        <v>0.008342498881473443</v>
       </c>
       <c r="D27">
-        <v>-0.02812631352071363</v>
+        <v>-0.01477707452361162</v>
       </c>
       <c r="E27">
-        <v>-0.03686703305276467</v>
+        <v>0.003971871907637686</v>
       </c>
       <c r="F27">
-        <v>-0.05996340021478767</v>
+        <v>-0.01610179568754494</v>
       </c>
       <c r="G27">
-        <v>-0.04443680222202723</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.01482146204247972</v>
+      </c>
+      <c r="H27">
+        <v>0.002144527820248289</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05067256282156851</v>
+        <v>0.1474312000432046</v>
       </c>
       <c r="C28">
-        <v>0.09755790901499999</v>
+        <v>0.01830423641833183</v>
       </c>
       <c r="D28">
-        <v>-0.1156017148398406</v>
+        <v>0.2243218112553745</v>
       </c>
       <c r="E28">
-        <v>0.1470186132224683</v>
+        <v>0.002190481583131088</v>
       </c>
       <c r="F28">
-        <v>-0.03868276295015455</v>
+        <v>0.04007950666675857</v>
       </c>
       <c r="G28">
-        <v>-0.01861798682259654</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.01888048750226235</v>
+      </c>
+      <c r="H28">
+        <v>-0.007067844159486218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02113959150181945</v>
+        <v>0.02185718781672147</v>
       </c>
       <c r="C29">
-        <v>0.001270357394522739</v>
+        <v>0.0006830659354938973</v>
       </c>
       <c r="D29">
-        <v>-0.007332361049738468</v>
+        <v>-0.006194643933817248</v>
       </c>
       <c r="E29">
-        <v>-0.04738608252337363</v>
+        <v>0.01462672722354322</v>
       </c>
       <c r="F29">
-        <v>-0.0528366040668577</v>
+        <v>-0.01981903813255949</v>
       </c>
       <c r="G29">
-        <v>-0.05574698104555355</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.03806781034155562</v>
+      </c>
+      <c r="H29">
+        <v>0.003491689807285422</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.08757090290637799</v>
+        <v>0.05503918994448647</v>
       </c>
       <c r="C30">
-        <v>-0.05385604749746979</v>
+        <v>-0.004178835993205084</v>
       </c>
       <c r="D30">
-        <v>-0.0006885225260623542</v>
+        <v>-0.07497847275406935</v>
       </c>
       <c r="E30">
-        <v>-0.06155922082144094</v>
+        <v>-0.03207224291723292</v>
       </c>
       <c r="F30">
-        <v>-0.1022803753305905</v>
+        <v>-0.05479133790751252</v>
       </c>
       <c r="G30">
-        <v>-0.05718284292065517</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.04875797839371455</v>
+      </c>
+      <c r="H30">
+        <v>0.06965234004513408</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05641761724424504</v>
+        <v>0.05303974886191935</v>
       </c>
       <c r="C31">
-        <v>-0.03065215901620041</v>
+        <v>0.01240628734622791</v>
       </c>
       <c r="D31">
-        <v>0.007991648830870465</v>
+        <v>-0.02020142716089644</v>
       </c>
       <c r="E31">
-        <v>0.0006296241593684692</v>
+        <v>-0.005293319314744394</v>
       </c>
       <c r="F31">
-        <v>-0.04621280714826097</v>
+        <v>-0.01090809022566825</v>
       </c>
       <c r="G31">
-        <v>-0.06828956785169799</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.01663694635550591</v>
+      </c>
+      <c r="H31">
+        <v>0.007346063726333642</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01768734897593625</v>
+        <v>0.01054628683194024</v>
       </c>
       <c r="C32">
-        <v>-0.01089828080218358</v>
+        <v>0.01274111903336925</v>
       </c>
       <c r="D32">
-        <v>0.01861816247234271</v>
+        <v>-0.006323395687717186</v>
       </c>
       <c r="E32">
-        <v>-0.06951296099507923</v>
+        <v>0.02982479541598991</v>
       </c>
       <c r="F32">
-        <v>-0.08492760572461996</v>
+        <v>-0.04157873531842465</v>
       </c>
       <c r="G32">
-        <v>-0.05729298642048682</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.02478135726802069</v>
+      </c>
+      <c r="H32">
+        <v>0.05933273746020062</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.04523242896827666</v>
+        <v>0.04082231263320275</v>
       </c>
       <c r="C33">
-        <v>-0.02421339365088493</v>
+        <v>0.001228650858650351</v>
       </c>
       <c r="D33">
-        <v>0.03807093526577149</v>
+        <v>-0.03237444898333211</v>
       </c>
       <c r="E33">
-        <v>-0.02058079506931167</v>
+        <v>-0.0229036688517007</v>
       </c>
       <c r="F33">
-        <v>-0.08978330959091908</v>
+        <v>-0.007318180480109162</v>
       </c>
       <c r="G33">
-        <v>-0.0689839275488035</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.04523741560054215</v>
+      </c>
+      <c r="H33">
+        <v>0.04454804021338475</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02827930366413854</v>
+        <v>0.0267680801835216</v>
       </c>
       <c r="C34">
-        <v>-0.026007056999383</v>
+        <v>0.01685295189575054</v>
       </c>
       <c r="D34">
-        <v>0.009474533795325736</v>
+        <v>-0.03719205765196579</v>
       </c>
       <c r="E34">
-        <v>-0.02727351056494403</v>
+        <v>0.008974106626069766</v>
       </c>
       <c r="F34">
-        <v>-0.05666660631630117</v>
+        <v>-0.02074041298097061</v>
       </c>
       <c r="G34">
-        <v>-0.0151885122827233</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.01605752305091364</v>
+      </c>
+      <c r="H34">
+        <v>0.03851361512195903</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01440552307569582</v>
+        <v>0.02029201598969243</v>
       </c>
       <c r="C36">
-        <v>-0.0001656429274287604</v>
+        <v>-0.004854836487236749</v>
       </c>
       <c r="D36">
-        <v>0.001170396827180699</v>
+        <v>-0.0008117902893683008</v>
       </c>
       <c r="E36">
-        <v>-0.02591260525193721</v>
+        <v>0.007315180438496929</v>
       </c>
       <c r="F36">
-        <v>-0.03419095959176063</v>
+        <v>-0.00592315524138411</v>
       </c>
       <c r="G36">
-        <v>-0.03808786326814481</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01692864879043145</v>
+      </c>
+      <c r="H36">
+        <v>0.01240939979077036</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.0002983872765622626</v>
+        <v>0.02748947834286332</v>
       </c>
       <c r="C38">
-        <v>0.01665829707376805</v>
+        <v>0.01683528506320155</v>
       </c>
       <c r="D38">
-        <v>0.01101488386507669</v>
+        <v>-0.007732255989421964</v>
       </c>
       <c r="E38">
-        <v>0.0278929911974273</v>
+        <v>-0.0005609099236325109</v>
       </c>
       <c r="F38">
-        <v>-0.03522731253784614</v>
+        <v>-0.01294588944223561</v>
       </c>
       <c r="G38">
-        <v>-0.0104832145186388</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.01996791412887804</v>
+      </c>
+      <c r="H38">
+        <v>0.04267218505208251</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03537550795776254</v>
+        <v>0.0209010004423697</v>
       </c>
       <c r="C39">
-        <v>-0.04663966683009783</v>
+        <v>0.002748721684311142</v>
       </c>
       <c r="D39">
-        <v>0.01431444835100272</v>
+        <v>-0.08100002324563602</v>
       </c>
       <c r="E39">
-        <v>-0.02855989971838636</v>
+        <v>-0.003791108408270084</v>
       </c>
       <c r="F39">
-        <v>-0.06843987404147202</v>
+        <v>-0.02539570515488715</v>
       </c>
       <c r="G39">
-        <v>-0.02867302064058389</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.03593723536813215</v>
+      </c>
+      <c r="H39">
+        <v>0.07520726518330008</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.0318986229742356</v>
+        <v>0.03156245222646293</v>
       </c>
       <c r="C40">
-        <v>-0.06621163475524457</v>
+        <v>0.0005074305320716425</v>
       </c>
       <c r="D40">
-        <v>-0.004871171591175311</v>
+        <v>-0.02210345963790625</v>
       </c>
       <c r="E40">
-        <v>0.01581027285753733</v>
+        <v>-0.02375413129266822</v>
       </c>
       <c r="F40">
-        <v>-0.07728017292180414</v>
+        <v>-0.03429621884902267</v>
       </c>
       <c r="G40">
-        <v>-0.05138305894700637</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.01917394158083541</v>
+      </c>
+      <c r="H40">
+        <v>0.06813433051201552</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.002865617828714436</v>
+        <v>0.01198416203976841</v>
       </c>
       <c r="C41">
-        <v>0.00286471791016491</v>
+        <v>-0.0008333844465336907</v>
       </c>
       <c r="D41">
-        <v>0.006359226476123797</v>
+        <v>0.01330134152097474</v>
       </c>
       <c r="E41">
-        <v>-0.003153956918999169</v>
+        <v>-0.001574605121778484</v>
       </c>
       <c r="F41">
-        <v>-0.0121101730122095</v>
+        <v>0.0008044547448728016</v>
       </c>
       <c r="G41">
-        <v>-0.05169940185410486</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.005819048276985325</v>
+      </c>
+      <c r="H41">
+        <v>-0.0041869238478191</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3954045745567264</v>
+        <v>0.192073046284305</v>
       </c>
       <c r="C42">
-        <v>0.34657523149642</v>
+        <v>-0.07014350752439129</v>
       </c>
       <c r="D42">
-        <v>0.7032163746504443</v>
+        <v>-0.299185286148472</v>
       </c>
       <c r="E42">
-        <v>0.2847156271338588</v>
+        <v>-0.176775049982755</v>
       </c>
       <c r="F42">
-        <v>0.2910204169991203</v>
+        <v>0.8995875453859257</v>
       </c>
       <c r="G42">
-        <v>-0.158423622855755</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.09581341788818844</v>
+      </c>
+      <c r="H42">
+        <v>-0.02989451288923222</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.0004968661775694863</v>
+        <v>0.01423481640771299</v>
       </c>
       <c r="C43">
-        <v>0.006854020065973381</v>
+        <v>-0.001309892987773524</v>
       </c>
       <c r="D43">
-        <v>0.01235406778522825</v>
+        <v>0.01477278235425103</v>
       </c>
       <c r="E43">
-        <v>-0.002547006328716808</v>
+        <v>-0.004436534259380927</v>
       </c>
       <c r="F43">
-        <v>-0.02811382993150743</v>
+        <v>0.005713092967899457</v>
       </c>
       <c r="G43">
-        <v>-0.04960232165435848</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.005746997665664133</v>
+      </c>
+      <c r="H43">
+        <v>0.007857499798694375</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01560617852783322</v>
+        <v>0.01905238853840746</v>
       </c>
       <c r="C44">
-        <v>0.01311496936900939</v>
+        <v>0.003030770240321088</v>
       </c>
       <c r="D44">
-        <v>0.01021389679680251</v>
+        <v>-0.02616398564982989</v>
       </c>
       <c r="E44">
-        <v>-0.00285760612846202</v>
+        <v>0.006505936564511079</v>
       </c>
       <c r="F44">
-        <v>-0.109043237304154</v>
+        <v>-0.003993503014141392</v>
       </c>
       <c r="G44">
-        <v>-0.0902610211784735</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.03771762004771714</v>
+      </c>
+      <c r="H44">
+        <v>0.06553457683416256</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01980992969668314</v>
+        <v>0.01757709978389493</v>
       </c>
       <c r="C46">
-        <v>-0.01215357466407504</v>
+        <v>-0.004618925882453025</v>
       </c>
       <c r="D46">
-        <v>0.01992881689096759</v>
+        <v>-0.0112704514823755</v>
       </c>
       <c r="E46">
-        <v>-0.03496616018438531</v>
+        <v>0.001010711262259928</v>
       </c>
       <c r="F46">
-        <v>-0.06935960390090161</v>
+        <v>-0.0169739421133378</v>
       </c>
       <c r="G46">
-        <v>-0.07064340267068646</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.04557907321418102</v>
+      </c>
+      <c r="H46">
+        <v>0.01124313354350515</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.0937470369362121</v>
+        <v>0.07606097933299957</v>
       </c>
       <c r="C47">
-        <v>-0.03641997107463707</v>
+        <v>0.02828234067794678</v>
       </c>
       <c r="D47">
-        <v>-0.006696576236663872</v>
+        <v>-0.04437974651324526</v>
       </c>
       <c r="E47">
-        <v>-0.02291704491750533</v>
+        <v>-0.0007817629640496063</v>
       </c>
       <c r="F47">
-        <v>-0.02970434917420342</v>
+        <v>-0.02104787062062474</v>
       </c>
       <c r="G47">
-        <v>-0.0897303446994808</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.01034059682336606</v>
+      </c>
+      <c r="H47">
+        <v>-0.01973805843082327</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01538407830402334</v>
+        <v>0.02249903360031042</v>
       </c>
       <c r="C48">
-        <v>-0.007020588491335962</v>
+        <v>0.005837184670259429</v>
       </c>
       <c r="D48">
-        <v>0.01421791358567111</v>
+        <v>-0.006343686149064024</v>
       </c>
       <c r="E48">
-        <v>-0.01475394438540579</v>
+        <v>0.0008341056727037603</v>
       </c>
       <c r="F48">
-        <v>-0.05079949251253317</v>
+        <v>-0.009560767632380871</v>
       </c>
       <c r="G48">
-        <v>-0.03037405670818839</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02366166239561796</v>
+      </c>
+      <c r="H48">
+        <v>0.01983262601012248</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08408683486011864</v>
+        <v>0.07195406140597541</v>
       </c>
       <c r="C50">
-        <v>-0.03852242568266025</v>
+        <v>0.02471426050748362</v>
       </c>
       <c r="D50">
-        <v>0.01743618605467486</v>
+        <v>-0.04235599965077063</v>
       </c>
       <c r="E50">
-        <v>-0.02307473486542662</v>
+        <v>0.01251574620727586</v>
       </c>
       <c r="F50">
-        <v>-0.05997333116845717</v>
+        <v>-0.01637827195962113</v>
       </c>
       <c r="G50">
-        <v>-0.05080991353560885</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.008630893383983429</v>
+      </c>
+      <c r="H50">
+        <v>-0.002743415551223091</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01779370103730415</v>
+        <v>0.02000138468708931</v>
       </c>
       <c r="C51">
-        <v>0.02256482014413711</v>
+        <v>-0.001681391801327962</v>
       </c>
       <c r="D51">
-        <v>0.00193814461619709</v>
+        <v>0.004765691029049511</v>
       </c>
       <c r="E51">
-        <v>0.01313593499435992</v>
+        <v>0.007597866191499495</v>
       </c>
       <c r="F51">
-        <v>-0.109234914222483</v>
+        <v>0.004036025956498631</v>
       </c>
       <c r="G51">
-        <v>-0.05285385556509389</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.0510100208980545</v>
+      </c>
+      <c r="H51">
+        <v>0.05858929535522893</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.09528603157287988</v>
+        <v>0.09195962447994932</v>
       </c>
       <c r="C53">
-        <v>-0.05792053175130493</v>
+        <v>0.03443125469480939</v>
       </c>
       <c r="D53">
-        <v>0.003667294623323462</v>
+        <v>-0.07716017214468057</v>
       </c>
       <c r="E53">
-        <v>-0.04107111168321165</v>
+        <v>0.0009917837166914074</v>
       </c>
       <c r="F53">
-        <v>0.0366513947614768</v>
+        <v>-0.03929893828892695</v>
       </c>
       <c r="G53">
-        <v>-0.02722354353461079</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.05272154013497265</v>
+      </c>
+      <c r="H53">
+        <v>-0.04495443041441464</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01972448946624226</v>
+        <v>0.0259779704374902</v>
       </c>
       <c r="C54">
-        <v>-0.003510440576700728</v>
+        <v>0.01004867173149272</v>
       </c>
       <c r="D54">
-        <v>-0.01537793489367949</v>
+        <v>0.01264677493723049</v>
       </c>
       <c r="E54">
-        <v>-0.03422544623162599</v>
+        <v>0.00862445769450095</v>
       </c>
       <c r="F54">
-        <v>-0.04939980592652597</v>
+        <v>-0.01103778789421974</v>
       </c>
       <c r="G54">
-        <v>-0.07447613960310843</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03840097682589606</v>
+      </c>
+      <c r="H54">
+        <v>-0.002307561566552993</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1035457143911695</v>
+        <v>0.07768813701256796</v>
       </c>
       <c r="C55">
-        <v>-0.0313749408051065</v>
+        <v>0.0304777771271872</v>
       </c>
       <c r="D55">
-        <v>-0.01230889489767699</v>
+        <v>-0.07446261291359441</v>
       </c>
       <c r="E55">
-        <v>-0.06764908002877251</v>
+        <v>0.00900223632625197</v>
       </c>
       <c r="F55">
-        <v>0.02698381096791617</v>
+        <v>-0.03396047785435573</v>
       </c>
       <c r="G55">
-        <v>-0.06721778749514969</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.02607481503379701</v>
+      </c>
+      <c r="H55">
+        <v>-0.05315487131237718</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.137065987965964</v>
+        <v>0.1265207955794235</v>
       </c>
       <c r="C56">
-        <v>-0.08148175831870422</v>
+        <v>0.05274193822468266</v>
       </c>
       <c r="D56">
-        <v>-0.02874319044708698</v>
+        <v>-0.09908520840321411</v>
       </c>
       <c r="E56">
-        <v>-0.06552691452533982</v>
+        <v>0.0008504688969130004</v>
       </c>
       <c r="F56">
-        <v>0.07280323338497276</v>
+        <v>-0.06208535074695708</v>
       </c>
       <c r="G56">
-        <v>0.03945575042920799</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.08507577814577229</v>
+      </c>
+      <c r="H56">
+        <v>-0.05712353883033207</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04587615927794875</v>
+        <v>0.04115056708173635</v>
       </c>
       <c r="C57">
-        <v>-0.008042514552534822</v>
+        <v>-0.01024168633093575</v>
       </c>
       <c r="D57">
-        <v>0.0118134424339479</v>
+        <v>-0.03601779368622438</v>
       </c>
       <c r="E57">
-        <v>0.02408631142983797</v>
+        <v>-0.007921730786758417</v>
       </c>
       <c r="F57">
-        <v>-0.0684708391297929</v>
+        <v>-0.02183594152238106</v>
       </c>
       <c r="G57">
-        <v>-0.06878403610204739</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.05847297434232886</v>
+      </c>
+      <c r="H57">
+        <v>0.04476152864801217</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2272233094224341</v>
+        <v>0.1589595082904369</v>
       </c>
       <c r="C58">
-        <v>-0.08423429960046923</v>
+        <v>0.04655913369744572</v>
       </c>
       <c r="D58">
-        <v>0.0670167223973354</v>
+        <v>-0.1593107839783492</v>
       </c>
       <c r="E58">
-        <v>-0.08181862013086723</v>
+        <v>-0.1682085689132798</v>
       </c>
       <c r="F58">
-        <v>-0.4070295421231244</v>
+        <v>-0.02848854098506908</v>
       </c>
       <c r="G58">
-        <v>-0.1182570802340577</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.8290581765749176</v>
+      </c>
+      <c r="H58">
+        <v>-0.3710444605988643</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.05066154980181993</v>
+        <v>0.1602535829427242</v>
       </c>
       <c r="C59">
-        <v>0.05223986262351436</v>
+        <v>0.02738746387164747</v>
       </c>
       <c r="D59">
-        <v>-0.1178850657064602</v>
+        <v>0.2268383081697701</v>
       </c>
       <c r="E59">
-        <v>0.1405086675237168</v>
+        <v>-0.01727360202185971</v>
       </c>
       <c r="F59">
-        <v>-0.05906123345399778</v>
+        <v>0.01862630701257135</v>
       </c>
       <c r="G59">
-        <v>0.01697641522333543</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.01957588970872794</v>
+      </c>
+      <c r="H59">
+        <v>0.02684922006052678</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1573472836476638</v>
+        <v>0.1791220087383646</v>
       </c>
       <c r="C60">
-        <v>-0.05478478747513404</v>
+        <v>0.0315215719628843</v>
       </c>
       <c r="D60">
-        <v>0.04236995539205474</v>
+        <v>-0.02062092007623139</v>
       </c>
       <c r="E60">
-        <v>0.09247682531620011</v>
+        <v>-0.0492433413026112</v>
       </c>
       <c r="F60">
-        <v>-0.1604911248084717</v>
+        <v>-0.04099577908523586</v>
       </c>
       <c r="G60">
-        <v>0.3118069886858661</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.0242045943518017</v>
+      </c>
+      <c r="H60">
+        <v>0.3767295945070439</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.01989341184941804</v>
+        <v>0.02438073351577077</v>
       </c>
       <c r="C61">
-        <v>-0.01566955643663151</v>
+        <v>0.00745119340008934</v>
       </c>
       <c r="D61">
-        <v>0.0127535490677218</v>
+        <v>-0.04636397860541695</v>
       </c>
       <c r="E61">
-        <v>-0.01488866547370199</v>
+        <v>0.003469692036243742</v>
       </c>
       <c r="F61">
-        <v>-0.03574761031805726</v>
+        <v>-0.02305282109161932</v>
       </c>
       <c r="G61">
-        <v>-0.0175230704305149</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.01894003847756687</v>
+      </c>
+      <c r="H61">
+        <v>0.05596472764019162</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01661795407682415</v>
+        <v>0.0135982040743186</v>
       </c>
       <c r="C63">
-        <v>-0.006343931031161652</v>
+        <v>-0.002360636004355766</v>
       </c>
       <c r="D63">
-        <v>0.01873539997360886</v>
+        <v>-0.01830591709510127</v>
       </c>
       <c r="E63">
-        <v>-0.02950302481780293</v>
+        <v>0.004873929546437422</v>
       </c>
       <c r="F63">
-        <v>-0.02257866972229726</v>
+        <v>-0.01433385958745406</v>
       </c>
       <c r="G63">
-        <v>-0.06806804649524102</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01590982123750594</v>
+      </c>
+      <c r="H63">
+        <v>0.009314984604404469</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.034611159378189</v>
+        <v>0.04106827841073436</v>
       </c>
       <c r="C64">
-        <v>-0.003164722061232656</v>
+        <v>0.009196314554204926</v>
       </c>
       <c r="D64">
-        <v>-0.003426013707949937</v>
+        <v>-0.03623623927872138</v>
       </c>
       <c r="E64">
-        <v>-0.05857967056424546</v>
+        <v>0.01183673877748408</v>
       </c>
       <c r="F64">
-        <v>-0.02897628427316055</v>
+        <v>-0.007153795277122753</v>
       </c>
       <c r="G64">
-        <v>-0.04924358522818269</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.0002658543151882129</v>
+      </c>
+      <c r="H64">
+        <v>0.03909099759403252</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02267560245161013</v>
+        <v>0.03424404617292868</v>
       </c>
       <c r="C65">
-        <v>-0.0130288950640402</v>
+        <v>-0.002956690800678257</v>
       </c>
       <c r="D65">
-        <v>0.008727794644646096</v>
+        <v>-0.06343226749000022</v>
       </c>
       <c r="E65">
-        <v>-0.0179201691138813</v>
+        <v>0.008175932892269448</v>
       </c>
       <c r="F65">
-        <v>-0.02351040460215456</v>
+        <v>-0.0367882654992078</v>
       </c>
       <c r="G65">
-        <v>0.006841508536017359</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.001406504885627836</v>
+      </c>
+      <c r="H65">
+        <v>0.07314077271854064</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03250911889022253</v>
+        <v>0.02781352855519922</v>
       </c>
       <c r="C66">
-        <v>-0.05445641833590789</v>
+        <v>0.007785734086803934</v>
       </c>
       <c r="D66">
-        <v>0.01870648331481495</v>
+        <v>-0.09712088026471824</v>
       </c>
       <c r="E66">
-        <v>-0.02901857563715021</v>
+        <v>-0.006053692781567986</v>
       </c>
       <c r="F66">
-        <v>-0.05477713553103263</v>
+        <v>-0.04362121116060377</v>
       </c>
       <c r="G66">
-        <v>-0.01542491177130418</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.02809275708083894</v>
+      </c>
+      <c r="H66">
+        <v>0.07829644914609367</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01022404434631971</v>
+        <v>0.04652381365283979</v>
       </c>
       <c r="C67">
-        <v>0.004197997373721426</v>
+        <v>0.01918650193284617</v>
       </c>
       <c r="D67">
-        <v>0.00790891413985342</v>
+        <v>-0.00619017059593274</v>
       </c>
       <c r="E67">
-        <v>0.04043869101276404</v>
+        <v>-0.005149747879252475</v>
       </c>
       <c r="F67">
-        <v>-0.02066561919904205</v>
+        <v>-0.02011037810072247</v>
       </c>
       <c r="G67">
-        <v>0.002943531983565529</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.004433046128979746</v>
+      </c>
+      <c r="H67">
+        <v>0.04011710337207858</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06893272077963045</v>
+        <v>0.1536196707460043</v>
       </c>
       <c r="C68">
-        <v>0.07868712440232607</v>
+        <v>0.00530799665077579</v>
       </c>
       <c r="D68">
-        <v>-0.1423556460941566</v>
+        <v>0.2299229979035568</v>
       </c>
       <c r="E68">
-        <v>0.1299025798746209</v>
+        <v>-0.01039834048576453</v>
       </c>
       <c r="F68">
-        <v>-0.05254444733129796</v>
+        <v>0.04589349900642877</v>
       </c>
       <c r="G68">
-        <v>0.05295369829447117</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.03227334389705108</v>
+      </c>
+      <c r="H68">
+        <v>-0.04137712602207094</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.06701106583886976</v>
+        <v>0.0609756688650192</v>
       </c>
       <c r="C69">
-        <v>-0.04348482941454965</v>
+        <v>0.02773481918487917</v>
       </c>
       <c r="D69">
-        <v>-0.01200524165448776</v>
+        <v>-0.04050878627816512</v>
       </c>
       <c r="E69">
-        <v>-0.008825971268173678</v>
+        <v>-0.002273013329249362</v>
       </c>
       <c r="F69">
-        <v>-0.01958839427714087</v>
+        <v>-0.03049796277695589</v>
       </c>
       <c r="G69">
-        <v>-0.08555514275438328</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.01646839790237078</v>
+      </c>
+      <c r="H69">
+        <v>0.006256207891757641</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07446275212222432</v>
+        <v>0.1469402380661837</v>
       </c>
       <c r="C71">
-        <v>0.08940157385691987</v>
+        <v>0.01487124054867357</v>
       </c>
       <c r="D71">
-        <v>-0.1266625630144256</v>
+        <v>0.1979544974487066</v>
       </c>
       <c r="E71">
-        <v>0.193709711888124</v>
+        <v>-0.01665209666637118</v>
       </c>
       <c r="F71">
-        <v>-0.04669082599641036</v>
+        <v>0.0512172675645165</v>
       </c>
       <c r="G71">
-        <v>-0.01062899881582257</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.03277316722086714</v>
+      </c>
+      <c r="H71">
+        <v>-0.02070154721839213</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.111819701494</v>
+        <v>0.08044803047877386</v>
       </c>
       <c r="C72">
-        <v>-0.0706274897196775</v>
+        <v>0.03655924595767888</v>
       </c>
       <c r="D72">
-        <v>-0.03525977475380647</v>
+        <v>-0.0747885594968523</v>
       </c>
       <c r="E72">
-        <v>-0.01677754577410067</v>
+        <v>-0.01519567990236367</v>
       </c>
       <c r="F72">
-        <v>-0.1325249962746088</v>
+        <v>-0.07528233886582868</v>
       </c>
       <c r="G72">
-        <v>0.08462139180150717</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.0323266866117923</v>
+      </c>
+      <c r="H72">
+        <v>0.1543769471267435</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2329373987423566</v>
+        <v>0.2433515128554355</v>
       </c>
       <c r="C73">
-        <v>-0.07033901326853446</v>
+        <v>0.04161417220512806</v>
       </c>
       <c r="D73">
-        <v>0.04160395664386037</v>
+        <v>-0.07959669174080478</v>
       </c>
       <c r="E73">
-        <v>0.205581420549326</v>
+        <v>-0.08486183668928787</v>
       </c>
       <c r="F73">
-        <v>-0.2401293996034055</v>
+        <v>-0.04320879310518621</v>
       </c>
       <c r="G73">
-        <v>0.4456527891216539</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.03752739802127424</v>
+      </c>
+      <c r="H73">
+        <v>0.4999814171550855</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1383420892588272</v>
+        <v>0.1219288793565042</v>
       </c>
       <c r="C74">
-        <v>-0.03530107404501405</v>
+        <v>0.05074542284821865</v>
       </c>
       <c r="D74">
-        <v>-0.01953789574190079</v>
+        <v>-0.1044524472819819</v>
       </c>
       <c r="E74">
-        <v>-0.03580443858248814</v>
+        <v>0.00221065411705575</v>
       </c>
       <c r="F74">
-        <v>0.06401282538212645</v>
+        <v>-0.04792090866668344</v>
       </c>
       <c r="G74">
-        <v>0.02169433706179709</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.07016471801098612</v>
+      </c>
+      <c r="H74">
+        <v>-0.02969352997092074</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2276148500006178</v>
+        <v>0.2285182109786399</v>
       </c>
       <c r="C75">
-        <v>-0.1335867645211813</v>
+        <v>0.09664085890157935</v>
       </c>
       <c r="D75">
-        <v>-0.06556606084766112</v>
+        <v>-0.1642383455630816</v>
       </c>
       <c r="E75">
-        <v>-0.09770391127608721</v>
+        <v>-0.01552746002314846</v>
       </c>
       <c r="F75">
-        <v>0.09169503432127378</v>
+        <v>-0.1179330555261635</v>
       </c>
       <c r="G75">
-        <v>0.005031837556975454</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1439962337467321</v>
+      </c>
+      <c r="H75">
+        <v>-0.1339869059480754</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2684084103984656</v>
+        <v>0.2014896220011942</v>
       </c>
       <c r="C76">
-        <v>-0.1196889197830536</v>
+        <v>0.08957720013131999</v>
       </c>
       <c r="D76">
-        <v>-0.1156640011077044</v>
+        <v>-0.1536389031717267</v>
       </c>
       <c r="E76">
-        <v>-0.1438487995438913</v>
+        <v>0.03210363258678722</v>
       </c>
       <c r="F76">
-        <v>0.1497576085920071</v>
+        <v>-0.1118876857772769</v>
       </c>
       <c r="G76">
-        <v>0.01868893342930584</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.1424666336332824</v>
+      </c>
+      <c r="H76">
+        <v>-0.1330058640719028</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.129773388074032</v>
+        <v>0.07456658730517395</v>
       </c>
       <c r="C77">
-        <v>-0.02566507670028636</v>
+        <v>0.01048970015148009</v>
       </c>
       <c r="D77">
-        <v>0.09467660073376426</v>
+        <v>-0.06553387702365178</v>
       </c>
       <c r="E77">
-        <v>-0.04732977188306034</v>
+        <v>-0.008231503505642213</v>
       </c>
       <c r="F77">
-        <v>-0.1768508092262278</v>
+        <v>0.005602335230601962</v>
       </c>
       <c r="G77">
-        <v>-0.1981988603851953</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.09053238178037014</v>
+      </c>
+      <c r="H77">
+        <v>0.01371202047439963</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.07427526090381253</v>
+        <v>0.04396891074578794</v>
       </c>
       <c r="C78">
-        <v>-0.04001333829531468</v>
+        <v>0.01131629779320684</v>
       </c>
       <c r="D78">
-        <v>0.04302163501772863</v>
+        <v>-0.05513552117508357</v>
       </c>
       <c r="E78">
-        <v>-0.0718169501352004</v>
+        <v>0.003439175472459424</v>
       </c>
       <c r="F78">
-        <v>-0.1107017625531095</v>
+        <v>-0.02948676449870758</v>
       </c>
       <c r="G78">
-        <v>-0.03438606530912135</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.05862943187449601</v>
+      </c>
+      <c r="H78">
+        <v>0.07655440061409818</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1654734575680208</v>
+        <v>0.1411731896984571</v>
       </c>
       <c r="C80">
-        <v>0.7611084910619261</v>
+        <v>0.0333997911093698</v>
       </c>
       <c r="D80">
-        <v>-0.1601382360387245</v>
+        <v>-0.06326230849597435</v>
       </c>
       <c r="E80">
-        <v>-0.5530354981203903</v>
+        <v>0.952703278712611</v>
       </c>
       <c r="F80">
-        <v>-0.07356956775620266</v>
+        <v>0.1621576726391784</v>
       </c>
       <c r="G80">
-        <v>0.1658251954763048</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.1345314995929923</v>
+      </c>
+      <c r="H80">
+        <v>0.007317720413556168</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1704753595484804</v>
+        <v>0.1511350227938828</v>
       </c>
       <c r="C81">
-        <v>-0.09510849876168717</v>
+        <v>0.06263123923278509</v>
       </c>
       <c r="D81">
-        <v>-0.07946233867715181</v>
+        <v>-0.09920471659207682</v>
       </c>
       <c r="E81">
-        <v>-0.07355160746795597</v>
+        <v>0.006601493556975901</v>
       </c>
       <c r="F81">
-        <v>0.1135697781967083</v>
+        <v>-0.0752360816394661</v>
       </c>
       <c r="G81">
-        <v>0.04029566210632607</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.09839577278895127</v>
+      </c>
+      <c r="H81">
+        <v>-0.08930158112696633</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03999779785148393</v>
+        <v>0.03457971402070591</v>
       </c>
       <c r="C83">
-        <v>-0.0191371908985077</v>
+        <v>0.006231424448680822</v>
       </c>
       <c r="D83">
-        <v>0.0304667941790805</v>
+        <v>-0.02190330449838479</v>
       </c>
       <c r="E83">
-        <v>-0.006754431022901868</v>
+        <v>-0.006605721065914688</v>
       </c>
       <c r="F83">
-        <v>-0.05328835029139634</v>
+        <v>-0.01341112751432077</v>
       </c>
       <c r="G83">
-        <v>-0.03589367164972826</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04475889745249426</v>
+      </c>
+      <c r="H83">
+        <v>0.04093540536629096</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2489841829825775</v>
+        <v>0.2201873670003278</v>
       </c>
       <c r="C85">
-        <v>-0.1178181829210745</v>
+        <v>0.08140453809369969</v>
       </c>
       <c r="D85">
-        <v>-0.0797957600903932</v>
+        <v>-0.1677011744930915</v>
       </c>
       <c r="E85">
-        <v>-0.10696860457479</v>
+        <v>-0.008767810846289506</v>
       </c>
       <c r="F85">
-        <v>0.09280415480574887</v>
+        <v>-0.1039688053059908</v>
       </c>
       <c r="G85">
-        <v>-0.03291745310510874</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1546815748171899</v>
+      </c>
+      <c r="H85">
+        <v>-0.09362618696674273</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.006820929380829894</v>
+        <v>0.02559777752791474</v>
       </c>
       <c r="C86">
-        <v>0.0004047795678964549</v>
+        <v>0.0009949320693121316</v>
       </c>
       <c r="D86">
-        <v>0.0319730126953977</v>
+        <v>-0.01922578251749642</v>
       </c>
       <c r="E86">
-        <v>-0.04128919044724454</v>
+        <v>-0.004732718312507957</v>
       </c>
       <c r="F86">
-        <v>-0.06885448379713024</v>
+        <v>0.004883332325616284</v>
       </c>
       <c r="G86">
-        <v>-0.02836616651689523</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.07207576831706752</v>
+      </c>
+      <c r="H86">
+        <v>0.09069008621446761</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03925239282641002</v>
+        <v>0.02824945319171852</v>
       </c>
       <c r="C87">
-        <v>0.0114058967645199</v>
+        <v>0.002038484135685033</v>
       </c>
       <c r="D87">
-        <v>0.01396969894457614</v>
+        <v>-0.03896955313448138</v>
       </c>
       <c r="E87">
-        <v>-0.02043657788015469</v>
+        <v>0.008014687106182727</v>
       </c>
       <c r="F87">
-        <v>-0.1126931647442088</v>
+        <v>-0.01402561404287991</v>
       </c>
       <c r="G87">
-        <v>-0.04369249144603715</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.0778797647515708</v>
+      </c>
+      <c r="H87">
+        <v>0.08062047262051369</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.006034811129775727</v>
+        <v>0.03765045614942308</v>
       </c>
       <c r="C88">
-        <v>0.001328453707534298</v>
+        <v>-0.01147311139915337</v>
       </c>
       <c r="D88">
-        <v>-0.01089300449229327</v>
+        <v>-0.01432921833937804</v>
       </c>
       <c r="E88">
-        <v>-0.008699498104358707</v>
+        <v>0.01006664570471494</v>
       </c>
       <c r="F88">
-        <v>-0.0007557196164988657</v>
+        <v>-0.01414264634422076</v>
       </c>
       <c r="G88">
-        <v>-0.04748257530688832</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.003292741288769764</v>
+      </c>
+      <c r="H88">
+        <v>0.02189632482537508</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.09454199976728549</v>
+        <v>0.2482591756267331</v>
       </c>
       <c r="C89">
-        <v>0.1075747434228454</v>
+        <v>0.02179068993727167</v>
       </c>
       <c r="D89">
-        <v>-0.1830400729078387</v>
+        <v>0.3571413623296429</v>
       </c>
       <c r="E89">
-        <v>0.243962764859954</v>
+        <v>-0.026442133265578</v>
       </c>
       <c r="F89">
-        <v>-0.08093779344522678</v>
+        <v>0.04816662849256377</v>
       </c>
       <c r="G89">
-        <v>-0.02852898187240795</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.01419948150773251</v>
+      </c>
+      <c r="H89">
+        <v>-0.003325927283557747</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.0869028024484837</v>
+        <v>0.2017623152815727</v>
       </c>
       <c r="C90">
-        <v>0.1597749943642087</v>
+        <v>0.01790205455727522</v>
       </c>
       <c r="D90">
-        <v>-0.2260119862970358</v>
+        <v>0.3172327067284514</v>
       </c>
       <c r="E90">
-        <v>0.2333010859255396</v>
+        <v>-0.01818663944706195</v>
       </c>
       <c r="F90">
-        <v>-0.03495287950058826</v>
+        <v>0.07020758374075718</v>
       </c>
       <c r="G90">
-        <v>-0.03456984894422585</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.0173186699587241</v>
+      </c>
+      <c r="H90">
+        <v>-0.0588176998594334</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.3050534335623634</v>
+        <v>0.2324818565946392</v>
       </c>
       <c r="C91">
-        <v>-0.15378944290305</v>
+        <v>0.09572871864243844</v>
       </c>
       <c r="D91">
-        <v>-0.07282743178825193</v>
+        <v>-0.1513295226942576</v>
       </c>
       <c r="E91">
-        <v>-0.09518212500684486</v>
+        <v>-0.0142636046160544</v>
       </c>
       <c r="F91">
-        <v>0.2166587478639447</v>
+        <v>-0.1032572498300354</v>
       </c>
       <c r="G91">
-        <v>0.02952534746472179</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.1722502284707149</v>
+      </c>
+      <c r="H91">
+        <v>-0.1737813824956756</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.171848263069924</v>
+        <v>0.2511036707908181</v>
       </c>
       <c r="C92">
-        <v>0.1042887299770727</v>
+        <v>0.08226889577808238</v>
       </c>
       <c r="D92">
-        <v>-0.3879936887494961</v>
+        <v>0.2441772967739635</v>
       </c>
       <c r="E92">
-        <v>0.2203865209442739</v>
+        <v>-0.007906106427428745</v>
       </c>
       <c r="F92">
-        <v>0.144557858571568</v>
+        <v>-0.002906680304511597</v>
       </c>
       <c r="G92">
-        <v>-0.4695097702592771</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.001196785138561201</v>
+      </c>
+      <c r="H92">
+        <v>-0.1467743133260361</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.09488583552692617</v>
+        <v>0.2259787375527481</v>
       </c>
       <c r="C93">
-        <v>0.1716250534876578</v>
+        <v>0.02896437092940094</v>
       </c>
       <c r="D93">
-        <v>-0.2668948236089614</v>
+        <v>0.3311710305695146</v>
       </c>
       <c r="E93">
-        <v>0.3384011469297515</v>
+        <v>-0.03955451720654633</v>
       </c>
       <c r="F93">
-        <v>0.00964265785513733</v>
+        <v>0.07372401080682843</v>
       </c>
       <c r="G93">
-        <v>0.05331704271666218</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.009907802089342851</v>
+      </c>
+      <c r="H93">
+        <v>-0.001202727979558952</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3039162128969203</v>
+        <v>0.2563406740803358</v>
       </c>
       <c r="C94">
-        <v>-0.2014649419376898</v>
+        <v>0.08558415109845652</v>
       </c>
       <c r="D94">
-        <v>-0.1547125831330244</v>
+        <v>-0.1471555720365028</v>
       </c>
       <c r="E94">
-        <v>-0.128693291575369</v>
+        <v>-0.03017340963566393</v>
       </c>
       <c r="F94">
-        <v>0.191098003962018</v>
+        <v>-0.1514158678118428</v>
       </c>
       <c r="G94">
-        <v>0.07030172353199149</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1647183083544411</v>
+      </c>
+      <c r="H94">
+        <v>-0.2118184977317618</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.05916026310761665</v>
+        <v>0.0582601224574508</v>
       </c>
       <c r="C95">
-        <v>-0.06756315868505426</v>
+        <v>0.03096964517711393</v>
       </c>
       <c r="D95">
-        <v>0.06815043577547743</v>
+        <v>-0.09156852195679754</v>
       </c>
       <c r="E95">
-        <v>-0.05611512257576968</v>
+        <v>-0.0779318860233182</v>
       </c>
       <c r="F95">
-        <v>-0.004702577291738254</v>
+        <v>-0.00974878122371084</v>
       </c>
       <c r="G95">
-        <v>-0.1636116565670864</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.05257450112407372</v>
+      </c>
+      <c r="H95">
+        <v>0.05381266022345959</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1783314073898903</v>
+        <v>0.1839470331749189</v>
       </c>
       <c r="C98">
-        <v>-0.01304835696772313</v>
+        <v>0.06276187590994547</v>
       </c>
       <c r="D98">
-        <v>0.04225176587622256</v>
+        <v>-0.03984404540423558</v>
       </c>
       <c r="E98">
-        <v>0.1277283923491678</v>
+        <v>-0.04894810382209068</v>
       </c>
       <c r="F98">
-        <v>-0.1270048833222202</v>
+        <v>-0.009022318002588152</v>
       </c>
       <c r="G98">
-        <v>0.37246372195058</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.06183354071118636</v>
+      </c>
+      <c r="H98">
+        <v>0.3547235444442696</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.007280372945995535</v>
+        <v>0.01559331732032867</v>
       </c>
       <c r="C101">
-        <v>-0.01050981163456154</v>
+        <v>-0.0009226497930475165</v>
       </c>
       <c r="D101">
-        <v>0.01022451195432499</v>
+        <v>-0.007603474124719853</v>
       </c>
       <c r="E101">
-        <v>-0.08115794840370441</v>
+        <v>0.006574656236208508</v>
       </c>
       <c r="F101">
-        <v>-0.1731045076552149</v>
+        <v>-0.02687809487367931</v>
       </c>
       <c r="G101">
-        <v>-0.1768979318012888</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1055062886912185</v>
+      </c>
+      <c r="H101">
+        <v>-0.02322728297348097</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.111608147714636</v>
+        <v>0.1053766321503334</v>
       </c>
       <c r="C102">
-        <v>-0.06614340212895362</v>
+        <v>0.03150400077049805</v>
       </c>
       <c r="D102">
-        <v>-0.01836819980067647</v>
+        <v>-0.07853884627705865</v>
       </c>
       <c r="E102">
-        <v>-0.06694185385907618</v>
+        <v>-0.002087053585103664</v>
       </c>
       <c r="F102">
-        <v>0.09097978853875632</v>
+        <v>-0.05223964910579573</v>
       </c>
       <c r="G102">
-        <v>0.004003636169878184</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.08957466057080082</v>
+      </c>
+      <c r="H102">
+        <v>-0.07054062877528534</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02087211239596114</v>
+        <v>0.01724044622159864</v>
       </c>
       <c r="C103">
-        <v>-0.02106146013915784</v>
+        <v>0.006058033396509218</v>
       </c>
       <c r="D103">
-        <v>0.003928827142789714</v>
+        <v>-0.01643873027850814</v>
       </c>
       <c r="E103">
-        <v>-0.02160279359737211</v>
+        <v>0.00966965187484839</v>
       </c>
       <c r="F103">
-        <v>-0.00398791270786593</v>
+        <v>-0.0106435254700299</v>
       </c>
       <c r="G103">
-        <v>-0.0180081380265393</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.001167418498298233</v>
+      </c>
+      <c r="H103">
+        <v>-0.01196391979946027</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.232955721522632</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9559677898073752</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.04332273775724439</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.02102864419895535</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1348628325280453</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.02815330016617471</v>
+      </c>
+      <c r="H104">
+        <v>-0.04584587919076381</v>
       </c>
     </row>
   </sheetData>
